--- a/data/UKPolling.xlsx
+++ b/data/UKPolling.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1274"/>
+  <dimension ref="A1:F1279"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1269" activeCellId="0" sqref="A1269:A1273"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1280" activeCellId="0" sqref="B1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21781,10 +21781,10 @@
       </c>
     </row>
     <row r="1268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1268" s="10" t="n">
+      <c r="A1268" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1268" s="0" t="n">
+      <c r="B1268" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C1268" s="9" t="s">
@@ -21793,15 +21793,15 @@
       <c r="D1268" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1268" s="0" t="n">
+      <c r="F1268" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1269" s="10" t="n">
+      <c r="A1269" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1269" s="0" t="n">
+      <c r="B1269" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C1269" s="9" t="s">
@@ -21810,15 +21810,15 @@
       <c r="D1269" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1269" s="0" t="n">
+      <c r="F1269" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1270" s="10" t="n">
+      <c r="A1270" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1270" s="0" t="n">
+      <c r="B1270" s="1" t="n">
         <v>27</v>
       </c>
       <c r="C1270" s="9" t="s">
@@ -21827,15 +21827,15 @@
       <c r="D1270" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1270" s="0" t="n">
+      <c r="F1270" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1271" s="10" t="n">
+      <c r="A1271" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1271" s="0" t="n">
+      <c r="B1271" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C1271" s="9" t="s">
@@ -21844,15 +21844,15 @@
       <c r="D1271" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1271" s="0" t="n">
+      <c r="F1271" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1272" s="10" t="n">
+      <c r="A1272" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1272" s="0" t="n">
+      <c r="B1272" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C1272" s="9" t="s">
@@ -21861,15 +21861,15 @@
       <c r="D1272" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1272" s="0" t="n">
+      <c r="F1272" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1273" s="10" t="n">
+      <c r="A1273" s="8" t="n">
         <v>45999</v>
       </c>
-      <c r="B1273" s="0" t="n">
+      <c r="B1273" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C1273" s="9" t="s">
@@ -21878,13 +21878,110 @@
       <c r="D1273" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1273" s="0" t="n">
+      <c r="F1273" s="1" t="n">
         <v>2303</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1274" s="0" t="n">
+      <c r="A1274" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1274" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1274" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1274" s="1" t="n">
         <v>2303</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1275" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1275" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1275" s="0" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1276" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1276" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1276" s="0" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1277" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1277" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1277" s="0" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1278" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1278" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1278" s="0" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="10" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B1279" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1279" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1279" s="0" t="n">
+        <v>2363</v>
       </c>
     </row>
   </sheetData>
